--- a/src/planning/samples/2025_employees_0.xlsx
+++ b/src/planning/samples/2025_employees_0.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -502,17 +502,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -590,17 +590,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -612,17 +612,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -678,17 +678,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -700,17 +700,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -788,12 +788,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +810,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,17 +898,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1052,17 +1052,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1206,17 +1206,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1294,17 +1294,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1382,17 +1382,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1448,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1514,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1607,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1624,17 +1624,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1690,17 +1690,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1734,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1849,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1915,12 +1915,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2042,12 +2042,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2064,17 +2064,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2086,17 +2086,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2108,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2152,17 +2152,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2245,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2262,12 +2262,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2438,12 +2438,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2658,12 +2658,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2883,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2905,12 +2905,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2922,17 +2922,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -2988,12 +2988,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3010,12 +3010,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3098,17 +3098,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3120,17 +3120,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3142,17 +3142,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3164,17 +3164,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3230,12 +3230,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3252,12 +3252,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3274,17 +3274,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3340,17 +3340,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3406,17 +3406,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3450,17 +3450,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3472,17 +3472,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3494,17 +3494,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3538,17 +3538,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3560,12 +3560,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3582,17 +3582,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3604,17 +3604,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3626,17 +3626,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3648,12 +3648,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3670,17 +3670,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3697,12 +3697,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3719,12 +3719,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3780,17 +3780,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3802,17 +3802,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3868,17 +3868,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
     </row>
@@ -3890,12 +3890,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3912,17 +3912,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3934,17 +3934,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4115,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4132,17 +4132,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4176,17 +4176,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4220,12 +4220,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4242,17 +4242,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4286,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4440,17 +4440,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4462,17 +4462,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4506,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4528,12 +4528,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4550,17 +4550,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4594,12 +4594,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4770,17 +4770,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4814,12 +4814,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4858,12 +4858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4924,12 +4924,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4973,12 +4973,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4995,12 +4995,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5034,17 +5034,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5078,17 +5078,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5100,17 +5100,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5122,17 +5122,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5144,17 +5144,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5188,17 +5188,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5210,17 +5210,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5232,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5254,17 +5254,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5298,17 +5298,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5369,12 +5369,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5386,17 +5386,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5408,17 +5408,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5430,17 +5430,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5474,17 +5474,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5562,12 +5562,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5650,17 +5650,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5672,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5760,17 +5760,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5782,17 +5782,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5804,17 +5804,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5848,17 +5848,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5870,12 +5870,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5914,17 +5914,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5958,12 +5958,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5980,17 +5980,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6029,12 +6029,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6112,17 +6112,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6134,17 +6134,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6156,17 +6156,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6178,17 +6178,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6200,17 +6200,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6222,17 +6222,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6244,17 +6244,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6315,12 +6315,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6337,12 +6337,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6420,12 +6420,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6442,12 +6442,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6574,17 +6574,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6596,17 +6596,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6623,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6667,12 +6667,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6684,17 +6684,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6706,17 +6706,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6750,7 +6750,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6772,17 +6772,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6816,17 +6816,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6838,17 +6838,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6887,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -6904,17 +6904,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6953,12 +6953,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6975,12 +6975,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7014,17 +7014,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7080,17 +7080,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7102,17 +7102,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7124,17 +7124,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7146,17 +7146,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7168,17 +7168,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7217,12 +7217,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7239,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7305,12 +7305,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -7388,12 +7388,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7410,17 +7410,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7432,12 +7432,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7476,17 +7476,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7498,17 +7498,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7525,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -7542,17 +7542,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7569,12 +7569,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7652,17 +7652,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7679,12 +7679,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7696,17 +7696,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7784,12 +7784,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7806,17 +7806,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7828,17 +7828,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7850,17 +7850,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7872,17 +7872,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7938,12 +7938,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7960,17 +7960,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -7982,17 +7982,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8004,17 +8004,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8026,17 +8026,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8048,12 +8048,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8070,12 +8070,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8092,12 +8092,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8114,17 +8114,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8136,17 +8136,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8185,12 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8224,12 +8224,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8246,12 +8246,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8268,17 +8268,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8339,12 +8339,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8378,12 +8378,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
